--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11b.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Tnfsf11</t>
@@ -440,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -525,49 +534,483 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.01593366730108</v>
+        <v>0.05344666666666667</v>
       </c>
       <c r="H2">
-        <v>3.01593366730108</v>
+        <v>0.16034</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.01703322519986738</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01703322519986738</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.65445385857304</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N2">
-        <v>1.65445385857304</v>
+        <v>0.247237</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.04727005612861496</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.04727005612861496</v>
       </c>
       <c r="Q2">
-        <v>4.989723093066611</v>
+        <v>0.004404664508888889</v>
       </c>
       <c r="R2">
-        <v>4.989723093066611</v>
+        <v>0.03964198058000001</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.0008051615112490699</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.00080516151124907</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.05344666666666667</v>
+      </c>
+      <c r="H3">
+        <v>0.16034</v>
+      </c>
+      <c r="I3">
+        <v>0.01703322519986738</v>
+      </c>
+      <c r="J3">
+        <v>0.01703322519986738</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1.661024</v>
+      </c>
+      <c r="N3">
+        <v>4.983072</v>
+      </c>
+      <c r="O3">
+        <v>0.9527299438713851</v>
+      </c>
+      <c r="P3">
+        <v>0.952729943871385</v>
+      </c>
+      <c r="Q3">
+        <v>0.08877619605333334</v>
+      </c>
+      <c r="R3">
+        <v>0.79898576448</v>
+      </c>
+      <c r="S3">
+        <v>0.01622806368861831</v>
+      </c>
+      <c r="T3">
+        <v>0.01622806368861831</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3.017399</v>
+      </c>
+      <c r="H4">
+        <v>9.052197</v>
+      </c>
+      <c r="I4">
+        <v>0.9616322193748527</v>
+      </c>
+      <c r="J4">
+        <v>0.9616322193748529</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.08241233333333334</v>
+      </c>
+      <c r="N4">
+        <v>0.247237</v>
+      </c>
+      <c r="O4">
+        <v>0.04727005612861496</v>
+      </c>
+      <c r="P4">
+        <v>0.04727005612861496</v>
+      </c>
+      <c r="Q4">
+        <v>0.2486708921876667</v>
+      </c>
+      <c r="R4">
+        <v>2.238038029689</v>
+      </c>
+      <c r="S4">
+        <v>0.04545640898493386</v>
+      </c>
+      <c r="T4">
+        <v>0.04545640898493387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3.017399</v>
+      </c>
+      <c r="H5">
+        <v>9.052197</v>
+      </c>
+      <c r="I5">
+        <v>0.9616322193748527</v>
+      </c>
+      <c r="J5">
+        <v>0.9616322193748529</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.661024</v>
+      </c>
+      <c r="N5">
+        <v>4.983072</v>
+      </c>
+      <c r="O5">
+        <v>0.9527299438713851</v>
+      </c>
+      <c r="P5">
+        <v>0.952729943871385</v>
+      </c>
+      <c r="Q5">
+        <v>5.011972156575999</v>
+      </c>
+      <c r="R5">
+        <v>45.107749409184</v>
+      </c>
+      <c r="S5">
+        <v>0.9161758103899189</v>
+      </c>
+      <c r="T5">
+        <v>0.9161758103899189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.01182566666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.035477</v>
+      </c>
+      <c r="I6">
+        <v>0.003768789637119215</v>
+      </c>
+      <c r="J6">
+        <v>0.003768789637119216</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.08241233333333334</v>
+      </c>
+      <c r="N6">
+        <v>0.247237</v>
+      </c>
+      <c r="O6">
+        <v>0.04727005612861496</v>
+      </c>
+      <c r="P6">
+        <v>0.04727005612861496</v>
+      </c>
+      <c r="Q6">
+        <v>0.0009745807832222223</v>
+      </c>
+      <c r="R6">
+        <v>0.008771227049000001</v>
+      </c>
+      <c r="S6">
+        <v>0.0001781508976835677</v>
+      </c>
+      <c r="T6">
+        <v>0.0001781508976835678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.01182566666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.035477</v>
+      </c>
+      <c r="I7">
+        <v>0.003768789637119215</v>
+      </c>
+      <c r="J7">
+        <v>0.003768789637119216</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.661024</v>
+      </c>
+      <c r="N7">
+        <v>4.983072</v>
+      </c>
+      <c r="O7">
+        <v>0.9527299438713851</v>
+      </c>
+      <c r="P7">
+        <v>0.952729943871385</v>
+      </c>
+      <c r="Q7">
+        <v>0.01964271614933333</v>
+      </c>
+      <c r="R7">
+        <v>0.176784445344</v>
+      </c>
+      <c r="S7">
+        <v>0.003590638739435648</v>
+      </c>
+      <c r="T7">
+        <v>0.003590638739435648</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.05511766666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.165353</v>
+      </c>
+      <c r="I8">
+        <v>0.0175657657881606</v>
+      </c>
+      <c r="J8">
+        <v>0.0175657657881606</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.08241233333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.247237</v>
+      </c>
+      <c r="O8">
+        <v>0.04727005612861496</v>
+      </c>
+      <c r="P8">
+        <v>0.04727005612861496</v>
+      </c>
+      <c r="Q8">
+        <v>0.004542375517888889</v>
+      </c>
+      <c r="R8">
+        <v>0.040881379661</v>
+      </c>
+      <c r="S8">
+        <v>0.0008303347347484562</v>
+      </c>
+      <c r="T8">
+        <v>0.0008303347347484562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.05511766666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.165353</v>
+      </c>
+      <c r="I9">
+        <v>0.0175657657881606</v>
+      </c>
+      <c r="J9">
+        <v>0.0175657657881606</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.661024</v>
+      </c>
+      <c r="N9">
+        <v>4.983072</v>
+      </c>
+      <c r="O9">
+        <v>0.9527299438713851</v>
+      </c>
+      <c r="P9">
+        <v>0.952729943871385</v>
+      </c>
+      <c r="Q9">
+        <v>0.09155176715733335</v>
+      </c>
+      <c r="R9">
+        <v>0.823965904416</v>
+      </c>
+      <c r="S9">
+        <v>0.01673543105341215</v>
+      </c>
+      <c r="T9">
+        <v>0.01673543105341214</v>
       </c>
     </row>
   </sheetData>
